--- a/patch-exemple-rorlocation/ig/StructureDefinition-ror-organization.xlsx
+++ b/patch-exemple-rorlocation/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-25T17:39:20+00:00</t>
+    <t>2024-11-26T15:50:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/patch-exemple-rorlocation/ig/StructureDefinition-ror-organization.xlsx
+++ b/patch-exemple-rorlocation/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-26T15:50:42+00:00</t>
+    <t>2024-11-27T13:42:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/patch-exemple-rorlocation/ig/StructureDefinition-ror-organization.xlsx
+++ b/patch-exemple-rorlocation/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-27T13:42:46+00:00</t>
+    <t>2024-11-27T17:30:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/patch-exemple-rorlocation/ig/StructureDefinition-ror-organization.xlsx
+++ b/patch-exemple-rorlocation/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-27T17:30:53+00:00</t>
+    <t>2024-11-27T17:55:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/patch-exemple-rorlocation/ig/StructureDefinition-ror-organization.xlsx
+++ b/patch-exemple-rorlocation/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-27T17:55:52+00:00</t>
+    <t>2024-11-28T08:27:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/patch-exemple-rorlocation/ig/StructureDefinition-ror-organization.xlsx
+++ b/patch-exemple-rorlocation/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-28T08:27:58+00:00</t>
+    <t>2024-12-02T11:47:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/patch-exemple-rorlocation/ig/StructureDefinition-ror-organization.xlsx
+++ b/patch-exemple-rorlocation/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-02T11:47:28+00:00</t>
+    <t>2024-12-02T13:23:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -921,8 +921,8 @@
     <t>Organizations are known by a variety of ids. Some institutions maintain several, and most collect identifiers for exchange with other organizations concerning the organization.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:type.coding.code}
-</t>
+    <t>pattern:system}
+pattern:type}</t>
   </si>
   <si>
     <t>ele-1
@@ -3254,7 +3254,7 @@
     <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="131.5625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="23.6484375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="69.203125" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>

--- a/patch-exemple-rorlocation/ig/StructureDefinition-ror-organization.xlsx
+++ b/patch-exemple-rorlocation/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-02T13:23:17+00:00</t>
+    <t>2024-12-02T14:14:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/patch-exemple-rorlocation/ig/StructureDefinition-ror-organization.xlsx
+++ b/patch-exemple-rorlocation/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-02T14:14:26+00:00</t>
+    <t>2024-12-02T15:53:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/patch-exemple-rorlocation/ig/StructureDefinition-ror-organization.xlsx
+++ b/patch-exemple-rorlocation/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-02T15:53:34+00:00</t>
+    <t>2024-12-02T17:30:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/patch-exemple-rorlocation/ig/StructureDefinition-ror-organization.xlsx
+++ b/patch-exemple-rorlocation/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-02T17:30:27+00:00</t>
+    <t>2024-12-02T17:50:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/patch-exemple-rorlocation/ig/StructureDefinition-ror-organization.xlsx
+++ b/patch-exemple-rorlocation/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-02T17:50:26+00:00</t>
+    <t>2024-12-02T18:10:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/patch-exemple-rorlocation/ig/StructureDefinition-ror-organization.xlsx
+++ b/patch-exemple-rorlocation/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-02T18:10:43+00:00</t>
+    <t>2024-12-02T18:24:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/patch-exemple-rorlocation/ig/StructureDefinition-ror-organization.xlsx
+++ b/patch-exemple-rorlocation/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-02T18:24:17+00:00</t>
+    <t>2024-12-03T13:53:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -921,8 +921,8 @@
     <t>Organizations are known by a variety of ids. Some institutions maintain several, and most collect identifiers for exchange with other organizations concerning the organization.</t>
   </si>
   <si>
-    <t>pattern:system}
-pattern:type}</t>
+    <t xml:space="preserve">value:type.coding.code}
+</t>
   </si>
   <si>
     <t>ele-1
@@ -3254,7 +3254,7 @@
     <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="131.5625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="23.6484375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="69.203125" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>

--- a/patch-exemple-rorlocation/ig/StructureDefinition-ror-organization.xlsx
+++ b/patch-exemple-rorlocation/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-03T13:53:16+00:00</t>
+    <t>2024-12-03T16:51:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
